--- a/app/eCH-0160 zu EAD_v1.xlsx
+++ b/app/eCH-0160 zu EAD_v1.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="12825" tabRatio="141"/>
   </bookViews>
   <sheets>
-    <sheet name="eCH-0160 zu xIsadg" sheetId="1" r:id="rId1"/>
+    <sheet name="eCH-0160 zu EAD" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'eCH-0160 zu xIsadg'!$A$1:$J$42</definedName>
-    <definedName name="Print_Area" localSheetId="0">'eCH-0160 zu xIsadg'!$A$1:$J$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'eCH-0160 zu EAD'!$A$1:$J$42</definedName>
+    <definedName name="Print_Area" localSheetId="0">'eCH-0160 zu EAD'!$A$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -750,9 +750,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -767,27 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,8 +1161,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J38" sqref="A1:J38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1212,11 +1212,11 @@
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="35" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="I2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="15"/>
@@ -1254,7 +1254,7 @@
       <c r="I3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="15"/>
@@ -1275,7 +1275,7 @@
       <c r="I4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="38" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="15"/>
@@ -1296,7 +1296,7 @@
       <c r="I5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="38" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="15"/>
@@ -1325,7 +1325,7 @@
       <c r="I6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="39" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="15"/>
@@ -1350,7 +1350,7 @@
       <c r="I7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="38" t="s">
         <v>41</v>
       </c>
       <c r="K7" s="16"/>
@@ -1367,7 +1367,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="38" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="15"/>
@@ -1384,7 +1384,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="45"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1">
@@ -1399,7 +1399,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="4"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="40" t="s">
         <v>46</v>
       </c>
       <c r="K10" s="15"/>
@@ -1428,7 +1428,7 @@
       <c r="I11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="39" t="s">
         <v>52</v>
       </c>
       <c r="K11" s="15"/>
@@ -1445,7 +1445,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="4"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="38" t="s">
         <v>54</v>
       </c>
       <c r="K12" s="16"/>
@@ -1466,7 +1466,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="4"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="40" t="s">
         <v>46</v>
       </c>
       <c r="K13" s="15"/>
@@ -1489,7 +1489,7 @@
       <c r="I14" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="38" t="s">
         <v>59</v>
       </c>
       <c r="K14" s="15"/>
@@ -1512,7 +1512,7 @@
       <c r="I15" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="38" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="16"/>
@@ -1529,7 +1529,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="4"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="40" t="s">
         <v>66</v>
       </c>
       <c r="K16" s="15"/>
@@ -1550,7 +1550,7 @@
       <c r="I17" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="38" t="s">
         <v>43</v>
       </c>
       <c r="K17" s="15"/>
@@ -1571,7 +1571,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="4"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="38" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="16"/>
@@ -1590,7 +1590,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="4"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="38" t="s">
         <v>74</v>
       </c>
       <c r="K19" s="16"/>
@@ -1607,7 +1607,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="38" t="s">
         <v>76</v>
       </c>
       <c r="K20" s="16"/>
@@ -1636,7 +1636,7 @@
       <c r="I21" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="38" t="s">
         <v>82</v>
       </c>
       <c r="K21" s="15"/>
@@ -1653,7 +1653,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="4"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="38" t="s">
         <v>84</v>
       </c>
       <c r="K22" s="15"/>
@@ -1670,7 +1670,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="4"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="38" t="s">
         <v>86</v>
       </c>
       <c r="K23" s="15"/>
@@ -1685,13 +1685,13 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="43" t="s">
         <v>90</v>
       </c>
       <c r="K24" s="15"/>
@@ -1710,9 +1710,9 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="44"/>
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1">
@@ -1729,9 +1729,9 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1">
@@ -1746,9 +1746,9 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="44"/>
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1">
@@ -1765,9 +1765,9 @@
         <v>94</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="48"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1">
@@ -1784,9 +1784,9 @@
         <v>95</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="48"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1">
@@ -1803,9 +1803,9 @@
         <v>96</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1">
@@ -1822,9 +1822,9 @@
         <v>97</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="48"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="44"/>
       <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1">
@@ -1841,9 +1841,9 @@
         <v>98</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="48"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="44"/>
       <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1">
@@ -1858,7 +1858,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
       <c r="I33" s="36"/>
-      <c r="J33" s="45"/>
+      <c r="J33" s="38"/>
       <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1">
@@ -1885,7 +1885,7 @@
       <c r="I34" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="40" t="s">
         <v>103</v>
       </c>
       <c r="K34" s="15"/>
@@ -1904,7 +1904,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
       <c r="I35" s="36"/>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="38" t="s">
         <v>105</v>
       </c>
       <c r="K35" s="15"/>
@@ -1929,7 +1929,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="4"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="38" t="s">
         <v>107</v>
       </c>
       <c r="K36" s="15"/>
@@ -1946,7 +1946,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="4"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="45"/>
+      <c r="J37" s="38"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
@@ -1965,7 +1965,7 @@
       <c r="I38" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="J38" s="49" t="s">
+      <c r="J38" s="41" t="s">
         <v>112</v>
       </c>
       <c r="K38" s="15"/>
@@ -1983,39 +1983,39 @@
       <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="12"/>
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="13"/>
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="14"/>
       <c r="J42" s="9"/>
       <c r="K42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="H24:H32"/>
     <mergeCell ref="I24:I32"/>
     <mergeCell ref="J24:J32"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="1.0236220472440944" bottom="0.43307086614173229" header="0.51181102362204722" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>

--- a/app/eCH-0160 zu EAD_v1.xlsx
+++ b/app/eCH-0160 zu EAD_v1.xlsx
@@ -644,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,9 +674,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -753,19 +750,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,15 +785,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,15 +1159,16 @@
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1"/>
     <col min="2" max="2" width="32.28515625" style="1"/>
-    <col min="3" max="3" width="18.5703125" style="1"/>
-    <col min="4" max="5" width="30.140625" style="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1"/>
     <col min="7" max="7" width="2.28515625" style="1"/>
     <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
@@ -1181,65 +1179,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A2" s="47" t="s">
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
@@ -1251,16 +1249,16 @@
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="4"/>
@@ -1272,16 +1270,16 @@
       <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1293,16 +1291,16 @@
       <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="35" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1325,13 +1323,13 @@
       <c r="I6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A7" s="22" t="s">
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1347,16 +1345,16 @@
       <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="4"/>
@@ -1366,14 +1364,14 @@
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="36"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
@@ -1383,12 +1381,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="36"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4"/>
@@ -1398,14 +1396,14 @@
       <c r="F10" s="4"/>
       <c r="G10" s="2"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="40" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
@@ -1428,13 +1426,13 @@
       <c r="I11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1444,14 +1442,14 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
@@ -1465,14 +1463,14 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="40" t="s">
+      <c r="I13" s="35"/>
+      <c r="J13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1486,16 +1484,16 @@
       <c r="H14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="35" t="s">
         <v>58</v>
       </c>
       <c r="J14" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="38.25">
-      <c r="A15" s="21"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="20"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1509,16 +1507,16 @@
       <c r="H15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1528,14 +1526,14 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="40" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="38.25">
-      <c r="A17" s="21"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="20"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1547,16 +1545,16 @@
       <c r="H17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="35" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A18" s="21"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="20"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="10" t="s">
@@ -1570,14 +1568,14 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1589,14 +1587,14 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1606,14 +1604,14 @@
       <c r="F20" s="4"/>
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -1633,16 +1631,16 @@
       <c r="H21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="35" t="s">
         <v>81</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A22" s="21"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1652,14 +1650,14 @@
       <c r="F22" s="4"/>
       <c r="G22" s="2"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="25.5">
-      <c r="A23" s="21"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7" t="s">
         <v>85</v>
@@ -1669,14 +1667,14 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="15"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="4"/>
@@ -1685,19 +1683,19 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B25" s="4"/>
@@ -1710,13 +1708,13 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="15"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="4"/>
@@ -1729,13 +1727,13 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="15"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="10" t="s">
@@ -1746,13 +1744,13 @@
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="15"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1">
-      <c r="A28" s="21"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="10" t="s">
@@ -1765,13 +1763,13 @@
         <v>94</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="15"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1">
-      <c r="A29" s="21"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="10" t="s">
@@ -1784,13 +1782,13 @@
         <v>95</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="15"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1">
-      <c r="A30" s="21"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="10" t="s">
@@ -1803,13 +1801,13 @@
         <v>96</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="15"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1">
-      <c r="A31" s="21"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="10" t="s">
@@ -1822,13 +1820,13 @@
         <v>97</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="15"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="10" t="s">
@@ -1841,13 +1839,13 @@
         <v>98</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="15"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="3" customFormat="1">
-      <c r="A33" s="21"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1857,12 +1855,12 @@
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="36"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="38"/>
-      <c r="K33" s="15"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -1879,19 +1877,19 @@
         <v>100</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1">
-      <c r="A35" s="21"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1903,14 +1901,14 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="36"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="4"/>
@@ -1928,14 +1926,14 @@
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="36"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1">
-      <c r="A37" s="21"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="7" t="s">
         <v>108</v>
       </c>
@@ -1945,82 +1943,82 @@
       <c r="F37" s="4"/>
       <c r="G37" s="2"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="36"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="15"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="25" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="J38" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="11"/>
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="13"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="12"/>
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="13"/>
       <c r="J42" s="9"/>
       <c r="K42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="H24:H32"/>
     <mergeCell ref="I24:I32"/>
     <mergeCell ref="J24:J32"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="1.0236220472440944" bottom="0.43307086614173229" header="0.51181102362204722" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12eCH-0160 / ISAD(G) / EAD</oddHeader>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12eCH-0160 zu EAD</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
